--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -5,149 +5,34 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA35010-EA01-465C-AE66-1FEB356F0E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFC2661-8C3F-4672-AA22-D5B6C459595E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>dct:title</t>
   </si>
   <si>
-    <t>Weekdays</t>
-  </si>
-  <si>
     <t>dct:description</t>
   </si>
   <si>
-    <t>The days of the week</t>
-  </si>
-  <si>
     <t>URI</t>
   </si>
   <si>
-    <t>skos:prefLabel</t>
-  </si>
-  <si>
-    <t>skos:definition</t>
-  </si>
-  <si>
-    <t>skos:narrower</t>
-  </si>
-  <si>
-    <t>skos:notation</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>The day where you get back at work</t>
-  </si>
-  <si>
-    <t>MON</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>The most productive day of the week.</t>
-  </si>
-  <si>
-    <t>TUE</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>WED</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>THU</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Week-end soon !</t>
-  </si>
-  <si>
-    <t>FRI</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>SAT</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>The day you sleep.</t>
-  </si>
-  <si>
-    <t>SUN</t>
-  </si>
-  <si>
-    <t>Week-end</t>
-  </si>
-  <si>
-    <t>Any day of the week-end</t>
-  </si>
-  <si>
-    <t>WKND</t>
-  </si>
-  <si>
-    <t>This is a general comment that will be ignored. The converter will detect automatically the line containing the column titles below, so you can have a header as long as you want.</t>
-  </si>
-  <si>
-    <t>http://data.sparna.fr/vocabularies/days</t>
-  </si>
-  <si>
     <t>ConceptScheme URI</t>
-  </si>
-  <si>
-    <t>http://data.sparna.fr/vocabularies/days/monday</t>
-  </si>
-  <si>
-    <t>http://data.sparna.fr/vocabularies/days/tuesday</t>
-  </si>
-  <si>
-    <t>http://data.sparna.fr/vocabularies/days/wednesday</t>
-  </si>
-  <si>
-    <t>http://data.sparna.fr/vocabularies/days/thursday</t>
-  </si>
-  <si>
-    <t>http://data.sparna.fr/vocabularies/days/friday</t>
-  </si>
-  <si>
-    <t>http://data.sparna.fr/vocabularies/days/saturday</t>
-  </si>
-  <si>
-    <t>http://data.sparna.fr/vocabularies/days/sunday</t>
-  </si>
-  <si>
-    <t>http://data.sparna.fr/vocabularies/days/week-end</t>
-  </si>
-  <si>
-    <t>http://data.sparna.fr/vocabularies/days/saturday, http://data.sparna.fr/vocabularies/days/sunday</t>
   </si>
   <si>
     <t>http://data.health-ri.nl/core/p1</t>
@@ -617,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -634,10 +519,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -645,74 +530,74 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -720,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -728,43 +613,43 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -794,191 +679,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="50.26171875" customWidth="1"/>
-    <col min="2" max="2" width="36.41796875" customWidth="1"/>
-    <col min="3" max="3" width="26.68359375" customWidth="1"/>
-    <col min="4" max="4" width="45.68359375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.83984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.41796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>

--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFC2661-8C3F-4672-AA22-D5B6C459595E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE7F617-A399-4A66-93D8-7F780F1878FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>dct:title</t>
   </si>
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -161,7 +161,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -502,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -601,6 +600,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -620,7 +622,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6"/>
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -637,6 +641,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -682,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>

--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE7F617-A399-4A66-93D8-7F780F1878FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5793E00A-C578-4B1E-ADDE-50DFE54BC92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1158" yWindow="1278" windowWidth="17784" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>dct:title</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>dcat:servesDataset</t>
-  </si>
-  <si>
-    <t>dcat:DatasetServies</t>
   </si>
   <si>
     <t>sh:nodeKind</t>
@@ -502,7 +499,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -557,57 +554,57 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -615,48 +612,48 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
         <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">

--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5793E00A-C578-4B1E-ADDE-50DFE54BC92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EE3340-ADA2-4E58-87D1-FE822C879A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1158" yWindow="1278" windowWidth="17784" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="78765" yWindow="5790" windowWidth="20100" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId2"/>
+    <sheet name="DataserService" sheetId="1" r:id="rId1"/>
+    <sheet name="Dataset" sheetId="3" r:id="rId2"/>
+    <sheet name="Catalog" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>dct:title</t>
   </si>
@@ -96,6 +97,9 @@
   </si>
   <si>
     <t>dash:LiteralViewer</t>
+  </si>
+  <si>
+    <t>sh:property</t>
   </si>
 </sst>
 </file>
@@ -499,12 +503,12 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="50.26171875" customWidth="1"/>
+    <col min="1" max="1" width="29.47265625" customWidth="1"/>
     <col min="2" max="2" width="25.68359375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.05078125" customWidth="1"/>
@@ -574,7 +578,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -598,7 +602,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -620,7 +624,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -639,7 +643,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -692,4 +696,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFFAE2-6597-4DF2-AF70-20588911715D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EE3340-ADA2-4E58-87D1-FE822C879A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02F53DC-9274-41C1-8417-D0D91915FFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="78765" yWindow="5790" windowWidth="20100" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="77400" yWindow="11070" windowWidth="20100" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataserService" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>dct:title</t>
   </si>
@@ -36,18 +36,6 @@
     <t>ConceptScheme URI</t>
   </si>
   <si>
-    <t>http://data.health-ri.nl/core/p1</t>
-  </si>
-  <si>
-    <t>HRI core metadata schema</t>
-  </si>
-  <si>
-    <t>HRI core metadata schema P1</t>
-  </si>
-  <si>
-    <t>This is a general comment that will be ignored. The converter will detect automatically the line containing the column titles below, so you can have a header as long as you want.  1. How to indicate the constraint insted of value? 2. How to indicate mandatory or recommended? 2. How to indicate the cardinality  [0..*] ?</t>
-  </si>
-  <si>
     <t>sh:path</t>
   </si>
   <si>
@@ -100,13 +88,28 @@
   </si>
   <si>
     <t>sh:property</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>sh:NodeShape</t>
+  </si>
+  <si>
+    <t>http://data.health-ri.nl/core/p1/DatasetService</t>
+  </si>
+  <si>
+    <t>DatasetService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a general comment that will be ignored. The converter will detect automatically the line containing the column titles below, so you can have a header as long as you want. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +121,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -503,17 +512,17 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="29.47265625" customWidth="1"/>
-    <col min="2" max="2" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.41796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.05078125" customWidth="1"/>
+    <col min="4" max="4" width="11.5234375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.05078125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.41796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -522,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -530,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -540,14 +549,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -555,60 +572,60 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
         <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -616,48 +633,54 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -682,6 +705,7 @@
       <c r="F15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02F53DC-9274-41C1-8417-D0D91915FFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C755344B-1E02-4FBA-B141-D168210011C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77400" yWindow="11070" windowWidth="20100" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="74385" yWindow="6825" windowWidth="20100" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataserService" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>dct:title</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>dash:LiteralViewer</t>
-  </si>
-  <si>
-    <t>sh:property</t>
   </si>
   <si>
     <t>a</t>
@@ -512,7 +509,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -531,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -539,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -549,22 +546,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -595,7 +592,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -619,7 +616,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -641,7 +638,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -663,7 +660,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>

--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C755344B-1E02-4FBA-B141-D168210011C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6E0E17-ED3C-4B7A-8132-C6ACB11B86F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74385" yWindow="6825" windowWidth="20100" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="79890" yWindow="4710" windowWidth="20100" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataserService" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>dash:LiteralViewer</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>sh:NodeShape</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t xml:space="preserve">This is a general comment that will be ignored. The converter will detect automatically the line containing the column titles below, so you can have a header as long as you want. </t>
+  </si>
+  <si>
+    <t>rdf:type</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -528,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -546,22 +546,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">

--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6E0E17-ED3C-4B7A-8132-C6ACB11B86F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C58A122-5FEA-4261-AFFA-3467443A8721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="79890" yWindow="4710" windowWidth="20100" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="81570" yWindow="5625" windowWidth="20100" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataserService" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>dct:title</t>
   </si>
@@ -90,9 +90,6 @@
     <t>sh:NodeShape</t>
   </si>
   <si>
-    <t>http://data.health-ri.nl/core/p1/DatasetService</t>
-  </si>
-  <si>
     <t>DatasetService</t>
   </si>
   <si>
@@ -100,6 +97,15 @@
   </si>
   <si>
     <t>rdf:type</t>
+  </si>
+  <si>
+    <t>http://data.health-ri.nl/core/p1/DatasetServiceShape</t>
+  </si>
+  <si>
+    <t>sh:targetClass</t>
+  </si>
+  <si>
+    <t>dcat:DataService</t>
   </si>
 </sst>
 </file>
@@ -506,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -528,142 +534,128 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9"/>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -681,9 +673,26 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="1"/>
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
       <c r="F12"/>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1"/>
@@ -691,15 +700,20 @@
       <c r="F13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15"/>
+    </row>
+    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="F16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C58A122-5FEA-4261-AFFA-3467443A8721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E6D8D6-FED2-4413-BEE6-28B8BE2B2F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="81570" yWindow="5625" windowWidth="20100" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="82410" yWindow="6465" windowWidth="20100" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataserService" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>dct:title</t>
   </si>
@@ -106,13 +106,22 @@
   </si>
   <si>
     <t>dcat:DataService</t>
+  </si>
+  <si>
+    <t>PREFIX</t>
+  </si>
+  <si>
+    <t>http://datashapes.org/dash#</t>
+  </si>
+  <si>
+    <t>dash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +142,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -158,10 +192,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -174,9 +209,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard 2" xfId="1" xr:uid="{7B12566E-6FDA-4123-A2E6-3676D6E2DD48}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -529,7 +571,7 @@
     <col min="7" max="7" width="30.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -537,7 +579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -545,7 +587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -555,7 +597,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -565,7 +607,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -573,111 +615,125 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:28" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10"/>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -694,29 +750,54 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="1"/>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
       <c r="F13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="F16"/>
     </row>
+    <row r="17" spans="3:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="F17"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" display="http://www.elzeard.co/ontologies/c3po/parameter#" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E6D8D6-FED2-4413-BEE6-28B8BE2B2F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47992680-6428-43FF-9B74-180245E2F8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82410" yWindow="6465" windowWidth="20100" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2532" yWindow="2532" windowWidth="15552" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DataserService" sheetId="1" r:id="rId1"/>
+    <sheet name="DatasetService" sheetId="1" r:id="rId1"/>
     <sheet name="Dataset" sheetId="3" r:id="rId2"/>
     <sheet name="Catalog" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>dct:title</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>dash</t>
+  </si>
+  <si>
+    <t>sh:property [</t>
+  </si>
+  <si>
+    <t>[</t>
   </si>
 </sst>
 </file>
@@ -234,9 +240,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,9 +280,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,26 +315,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,26 +350,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -557,7 +529,7 @@
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -684,7 +656,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -708,7 +680,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -730,7 +702,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -752,7 +724,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>

--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47992680-6428-43FF-9B74-180245E2F8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56465434-5983-42EA-9DBB-1216BC0EEED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2532" yWindow="2532" windowWidth="15552" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2868" yWindow="2868" windowWidth="15552" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetService" sheetId="1" r:id="rId1"/>
@@ -117,10 +117,10 @@
     <t>dash</t>
   </si>
   <si>
-    <t>sh:property [</t>
-  </si>
-  <si>
     <t>[</t>
+  </si>
+  <si>
+    <t>sh:property\ [</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -656,7 +656,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>

--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56465434-5983-42EA-9DBB-1216BC0EEED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69AEF49-1B27-4623-A2CA-47F7A1737CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="2868" windowWidth="15552" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4902" yWindow="1968" windowWidth="15552" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetService" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <t>[</t>
   </si>
   <si>
-    <t>sh:property\ [</t>
+    <t>sh:property"\ "[</t>
   </si>
 </sst>
 </file>

--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69AEF49-1B27-4623-A2CA-47F7A1737CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74179558-590E-423A-BC5E-0976949AC4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4902" yWindow="1968" windowWidth="15552" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="1830" windowWidth="15552" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetService" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <t>[</t>
   </si>
   <si>
-    <t>sh:property"\ "[</t>
+    <t>sh:property[</t>
   </si>
 </sst>
 </file>

--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74179558-590E-423A-BC5E-0976949AC4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E0019-D543-4755-B7FF-AF18984776DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1830" windowWidth="15552" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58290" yWindow="8805" windowWidth="15555" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetService" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>sh:path</t>
   </si>
   <si>
-    <t>dcat:endpointURL</t>
-  </si>
-  <si>
     <t>dcat:endpointDescription</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>sh:property[</t>
+  </si>
+  <si>
+    <t>dcat:endpointURL],</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -548,15 +548,15 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -574,28 +574,28 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -625,7 +625,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -636,57 +636,57 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
@@ -694,21 +694,21 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
         <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
@@ -716,21 +716,21 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -738,10 +738,10 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">

--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E0019-D543-4755-B7FF-AF18984776DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835AF9CC-F65F-4D6F-8BD5-58E61AF04495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58290" yWindow="8805" windowWidth="15555" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67575" yWindow="9555" windowWidth="15555" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetService" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>dct:title</t>
   </si>
@@ -39,12 +39,6 @@
     <t>sh:path</t>
   </si>
   <si>
-    <t>dcat:endpointDescription</t>
-  </si>
-  <si>
-    <t>dcat:servesDataset</t>
-  </si>
-  <si>
     <t>sh:nodeKind</t>
   </si>
   <si>
@@ -117,10 +111,19 @@
     <t>[</t>
   </si>
   <si>
-    <t>sh:property[</t>
-  </si>
-  <si>
     <t>dcat:endpointURL],</t>
+  </si>
+  <si>
+    <t>sh:property/[</t>
+  </si>
+  <si>
+    <t>dct:title],</t>
+  </si>
+  <si>
+    <t>dcat:endpointDescription],</t>
+  </si>
+  <si>
+    <t>dcat:servesDataset],</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -548,15 +551,15 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -564,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -574,28 +577,28 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -625,7 +628,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -636,57 +639,57 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
@@ -694,21 +697,21 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
@@ -716,21 +719,21 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
         <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -738,10 +741,10 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
         <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">

--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835AF9CC-F65F-4D6F-8BD5-58E61AF04495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB82FE58-E0C5-4544-8AEE-9DEBA2AB3939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67575" yWindow="9555" windowWidth="15555" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="68415" yWindow="10395" windowWidth="15555" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetService" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>dash</t>
   </si>
   <si>
-    <t>[</t>
-  </si>
-  <si>
     <t>dcat:endpointURL],</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>dcat:servesDataset],</t>
+  </si>
+  <si>
+    <t>/[</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -659,10 +659,10 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>

--- a/metadata/HealthRICoreP1.xlsx
+++ b/metadata/HealthRICoreP1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manz515245\Documents\HealthRI\excel2rdf\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB82FE58-E0C5-4544-8AEE-9DEBA2AB3939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1AB8BD-035D-4920-994F-68559D5EC353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68415" yWindow="10395" windowWidth="15555" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="69255" yWindow="11235" windowWidth="15555" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetService" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>dct:title</t>
   </si>
@@ -108,22 +108,13 @@
     <t>dash</t>
   </si>
   <si>
-    <t>dcat:endpointURL],</t>
-  </si>
-  <si>
-    <t>sh:property/[</t>
-  </si>
-  <si>
-    <t>dct:title],</t>
-  </si>
-  <si>
-    <t>dcat:endpointDescription],</t>
-  </si>
-  <si>
-    <t>dcat:servesDataset],</t>
-  </si>
-  <si>
-    <t>/[</t>
+    <t>dcat:endpointURL</t>
+  </si>
+  <si>
+    <t>dcat:endpointDescription</t>
+  </si>
+  <si>
+    <t>dcat:servesDataset</t>
   </si>
 </sst>
 </file>
@@ -532,7 +523,7 @@
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -659,7 +650,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -683,10 +674,10 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -705,10 +696,10 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -727,10 +718,10 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
